--- a/biology/Zoologie/Anguillula_arenaria/Anguillula_arenaria.xlsx
+++ b/biology/Zoologie/Anguillula_arenaria/Anguillula_arenaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Meloidogyne arenaria est une espèce de nématodes phytopathogènes de la famille des Meloidogynidae et du genre Meloidogyne.
 </t>
@@ -511,9 +523,11 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nématode parasite les plantes hôtes suivantes : Gerbera jamesonii, Impatiens, Lobelia erinus, Lycopersicon esculentum (la tomate), Medicago, Nicotiana tabacum, Primula obconica, Solanum dulcamara, Ulmus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nématode parasite les plantes hôtes suivantes : Gerbera jamesonii, Impatiens, Lobelia erinus, Lycopersicon esculentum (la tomate), Medicago, Nicotiana tabacum, Primula obconica, Solanum dulcamara, Ulmus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est recensée en Europe[2],[3],[4], en Australie[2],[3] et au Mexique[2]. Elle serait en réalité répandue dans le monde entier[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est recensée en Europe en Australie, et au Mexique. Elle serait en réalité répandue dans le monde entier.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nématode provoque des galles sur les racines des plantes qu'il parasite. Ce sont des renflements rotatifs ou fusiformes des racines, de 2 à 5 mm de large. Elles contiennent des nématodes, en particulier des femelles souvent d'un blanc brillant, qui peuvent contenir des œufs[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nématode provoque des galles sur les racines des plantes qu'il parasite. Ce sont des renflements rotatifs ou fusiformes des racines, de 2 à 5 mm de large. Elles contiennent des nématodes, en particulier des femelles souvent d'un blanc brillant, qui peuvent contenir des œufs.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Meloidogyne arenaria (Neal, 1889)[2].
-L'espèce a été initialement classée dans le genre Anguillula sous le protonyme Anguillula arenaria par James Clinton Neal en 1889[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Meloidogyne arenaria (Neal, 1889).
+L'espèce a été initialement classée dans le genre Anguillula sous le protonyme Anguillula arenaria par James Clinton Neal en 1889.
 </t>
         </is>
       </c>
